--- a/bots/crawl_ch/output/bread_coop_2022-12-02.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-02.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Ölz Vollkorn Sandwich Toast Soft 4.10 Schweizer Franken</t>
+          <t>Ölz Vollkorn Sandwich Toast Soft - Online kein Bestand 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7488,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10182,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12162,7 +12162,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12304,7 +12304,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12519,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12588,7 +12588,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -12945,7 +12945,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13018,45 +13018,45 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>6825720</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Prix Garantie Roggenvollkornbrot</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>0.36/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13066,7 +13066,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13076,60 +13076,56 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6825720</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D179" t="n">
+        <v>19</v>
+      </c>
+      <c r="E179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="n">
-        <v>4</v>
-      </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.36/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13139,7 +13135,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13149,18 +13145,22 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14377,7 +14377,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14446,7 +14446,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14795,7 +14795,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14864,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15004,7 +15004,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15215,7 +15215,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15284,7 +15284,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15645,7 +15645,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15860,7 +15860,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -15933,31 +15933,31 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>3431131</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Betty Bossi Spitzbube 2x  80g</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E219" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -15966,12 +15966,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2.73/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15996,51 +15996,51 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 8.20 Schweizer Franken</t>
+          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E220" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.73/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16060,56 +16060,56 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Bündner Nusstorte 8.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3431131</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16129,18 +16129,18 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16209,7 +16209,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16351,7 +16351,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16420,7 +16420,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16708,7 +16708,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16777,7 +16777,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16915,7 +16915,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -16984,7 +16984,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17051,7 +17051,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17120,45 +17120,45 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>6482125</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Prix Garantie Fairtrade Soft Cake Himbeere</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-himbeere/p/6482125</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E236" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17178,22 +17178,18 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Fairtrade Soft Cake Himbeere 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17262,45 +17258,45 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E238" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17310,7 +17306,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17320,56 +17316,60 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N238" t="inlineStr"/>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6482125</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Himbeere</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-himbeere/p/6482125</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E239" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17379,7 +17379,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17394,13 +17394,13 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Himbeere 1.80 Schweizer Franken</t>
+          <t>Milka Choco Brownie 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17542,7 +17542,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17611,7 +17611,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17684,7 +17684,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17757,7 +17757,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17826,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -17897,45 +17897,45 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E247" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17945,7 +17945,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17955,56 +17955,60 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N247" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18014,7 +18018,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18024,22 +18028,18 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 20% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -18108,7 +18108,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -18177,7 +18177,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -18250,7 +18250,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -18323,45 +18323,45 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E253" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.34/100g</t>
+          <t>1.25/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18371,7 +18371,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18381,60 +18381,60 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 4.95 Schweizer Franken</t>
+          <t>Roland Knäckebrot Exquis Sesam 33% ab 3 Aktion 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>1.34/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18444,7 +18444,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18454,22 +18454,22 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 33% ab 3 Aktion 2.50 Schweizer Franken</t>
+          <t>Schär Pain Brioché 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -18536,45 +18536,45 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D256" t="n">
         <v>2</v>
       </c>
       <c r="E256" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18584,7 +18584,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18594,60 +18594,56 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.35 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>3726503</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="n">
         <v>5</v>
       </c>
-      <c r="E257" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18657,7 +18653,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18667,56 +18663,60 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N257" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 4.35 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>3726503</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Pasquier Schokobrötchen 16 Stück</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E258" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18736,18 +18736,18 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18816,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -18958,7 +18958,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -19027,7 +19027,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -19100,29 +19100,31 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>32</v>
+      </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -19131,12 +19133,12 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19146,7 +19148,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19156,60 +19158,54 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 20% ab 2 Aktion 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>4849123</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>22</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
       <c r="E265" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2.47/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19219,7 +19215,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19229,60 +19225,60 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g 3.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 20% ab 2 Aktion 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>4849123</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E266" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>2.47/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19292,7 +19288,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19302,18 +19298,22 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N266" t="inlineStr"/>
+          <t>Schär Crackers Pocket glutenfrei 3x50g 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -19382,45 +19382,45 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19430,7 +19430,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19440,56 +19440,60 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr"/>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 33% ab 3 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E269" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19499,7 +19503,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19509,60 +19513,56 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19587,55 +19587,55 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 33% ab 3 Aktion 2.95 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>6773049</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Betty Bossi Brunsli Guetzliteig</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-brunsli-guetzliteig/p/6773049</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19645,7 +19645,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19655,60 +19655,60 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 20% ab 2 Aktion 6.50 Schweizer Franken</t>
+          <t>Betty Bossi Brunsli Guetzliteig 20% Aktion 3.50 Schweizer Franken statt 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6773049</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Betty Bossi Brunsli Guetzliteig</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-brunsli-guetzliteig/p/6773049</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E272" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19718,7 +19718,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19728,22 +19728,22 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Betty Bossi Brunsli Guetzliteig 20% Aktion 3.50 Schweizer Franken statt 4.40 Schweizer Franken</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 20% ab 2 Aktion 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -19812,7 +19812,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20098,7 +20098,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20244,100 +20244,102 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>6387363</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Karma Snack Mais Hülsenfrüchte</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E280" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr"/>
+          <t>Karma Snack Mais Hülsenfrüchte 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6387363</t>
+          <t>6739419</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -20346,12 +20348,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20361,7 +20363,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20371,58 +20373,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte 20% ab 2 Aktion 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6739419</t>
+          <t>5765910</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g</t>
+          <t>Häberlein-Metzger Oblaten-Lebkuchen Schokolade</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/haeberlein-metzger-oblaten-lebkuchen-schokolade/p/5765910</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>4</v>
+      </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Häberlein/Metzger</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20447,82 +20447,82 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+          <t>Häberlein-Metzger Oblaten-Lebkuchen Schokolade 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>5765910</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Häberlein-Metzger Oblaten-Lebkuchen Schokolade</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/haeberlein-metzger-oblaten-lebkuchen-schokolade/p/5765910</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Häberlein/Metzger</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Häberlein-Metzger Oblaten-Lebkuchen Schokolade 3.70 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20668,7 +20668,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20737,7 +20737,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21520,7 +21520,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21593,7 +21593,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -21808,31 +21808,31 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>7031403</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E302" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -21841,12 +21841,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21866,42 +21866,46 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr"/>
+          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>7031403</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -21910,12 +21914,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21925,7 +21929,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21935,22 +21939,18 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22023,7 +22023,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22092,7 +22092,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22161,7 +22161,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22230,7 +22230,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22303,7 +22303,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22372,7 +22372,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22518,7 +22518,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22587,7 +22587,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22660,7 +22660,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22729,7 +22729,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22798,7 +22798,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22867,7 +22867,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -22940,7 +22940,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23009,7 +23009,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23078,7 +23078,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23147,7 +23147,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23220,45 +23220,45 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23268,7 +23268,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23278,56 +23278,60 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 20% ab 2 Aktion 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E323" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23337,7 +23341,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23347,60 +23351,56 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 20% ab 2 Aktion 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Nature 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23420,35 +23420,35 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.30 Schweizer Franken</t>
+          <t>Roland Sport Banana Cranberry 33% ab 3 Aktion 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -23459,17 +23459,17 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23479,7 +23479,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23494,13 +23494,13 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 33% ab 3 Aktion 4.60 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23642,7 +23642,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23715,24 +23715,24 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -23743,17 +23743,17 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23773,35 +23773,39 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -23812,17 +23816,17 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23832,7 +23836,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23842,22 +23846,18 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Enchilada Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23930,7 +23930,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -23999,7 +23999,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -24068,7 +24068,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24137,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -24206,7 +24206,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -24275,7 +24275,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -24344,43 +24344,45 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>4303515</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Heaberlein Metzger Nürnberger Mini Elisen Schokolade</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/heaberlein-metzger-nuernberger-mini-elisen-schokolade/p/4303515</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>1</v>
+      </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Häberlein/Metzger</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.90/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24390,7 +24392,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24400,35 +24402,35 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Heaberlein Metzger Nürnberger Mini Elisen Schokolade 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>4303515</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Heaberlein Metzger Nürnberger Mini Elisen schokolade</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/heaberlein-metzger-nuernberger-mini-elisen-schokolade/p/4303515</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -24439,17 +24441,17 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Häberlein/Metzger</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>3.90/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24459,7 +24461,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24469,56 +24471,60 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Heaberlein Metzger Nürnberger Mini Elisen schokolade 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N339" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D340" t="n">
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24528,7 +24534,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24538,60 +24544,60 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 33% ab 3 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>5798822</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Betty Bossi Haselnussmakrönli Guetzliteig</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-haselnussmakroenli-guetzliteig/p/5798822</t>
         </is>
       </c>
       <c r="D341" t="n">
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24601,7 +24607,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24611,46 +24617,44 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 33% ab 3 Aktion 2.95 Schweizer Franken</t>
+          <t>Betty Bossi Haselnussmakrönli Guetzliteig 20% Aktion 3.50 Schweizer Franken statt 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>5798822</t>
+          <t>7002939</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Betty Bossi Haselnussmakrönli Guetzliteig</t>
+          <t>Bio Naturaplan Grättimaa/Grittibänz mit Schoggistängeli</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-haselnussmakroenli-guetzliteig/p/5798822</t>
-        </is>
-      </c>
-      <c r="D342" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/bio-naturaplan-graettimaagrittibaenz-mit-schoggistaengeli/p/7002939</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
       <c r="E342" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -24659,12 +24663,12 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24674,7 +24678,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24684,39 +24688,35 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Betty Bossi Haselnussmakrönli Guetzliteig 20% Aktion 3.50 Schweizer Franken statt 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Bio Naturaplan Grättimaa/Grittibänz mit Schoggistängeli 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>7002939</t>
+          <t>3003206</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Bio Naturaplan Grättimaa/Grittibänz mit Schoggistängeli</t>
+          <t>Olo Haselnuss Lebkuchen</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/bio-naturaplan-graettimaagrittibaenz-mit-schoggistaengeli/p/7002939</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/olo-haselnuss-lebkuchen/p/3003206</t>
         </is>
       </c>
       <c r="D343" t="inlineStr"/>
@@ -24725,7 +24725,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Olo</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24745,7 +24745,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24755,54 +24755,56 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Bio Naturaplan Grättimaa/Grittibänz mit Schoggistängeli 2.95 Schweizer Franken</t>
+          <t>Olo Haselnuss Lebkuchen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>3003206</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Olo Haselnuss Lebkuchen</t>
+          <t>Roland Cracker Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/olo-haselnuss-lebkuchen/p/3003206</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-cracker-sport-high-protein-choco/p/6729458</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>3</v>
+      </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Olo</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24812,7 +24814,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24822,56 +24824,56 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Olo Haselnuss Lebkuchen 2.95 Schweizer Franken</t>
+          <t>Roland Cracker Sport High Protein Choco 33% ab 3 Aktion 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6413411</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport High Protein Choco</t>
+          <t>Sapori Pandoro</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-cracker-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-pandoro/p/6413411</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Sapori</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24881,7 +24883,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24891,56 +24893,56 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport High Protein Choco 33% ab 3 Aktion 4.60 Schweizer Franken</t>
+          <t>Sapori Pandoro 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6413411</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Sapori Pandoro</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-pandoro/p/6413411</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Sapori</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24950,7 +24952,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24960,56 +24962,60 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Sapori Pandoro 14.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25019,7 +25025,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25029,60 +25035,58 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+          <t>Roland Knäckebrot Linsen-Protein 33% ab 3 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25092,7 +25096,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25102,22 +25106,18 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25190,7 +25190,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25259,7 +25259,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25328,7 +25328,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25395,7 +25395,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25462,7 +25462,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25531,7 +25531,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25604,7 +25604,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25677,45 +25677,45 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25735,56 +25735,56 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E358" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25794,7 +25794,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25804,18 +25804,18 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.40 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25888,7 +25888,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -25957,7 +25957,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26026,7 +26026,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26095,7 +26095,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26164,7 +26164,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26233,7 +26233,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26302,7 +26302,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26371,7 +26371,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26440,7 +26440,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26509,7 +26509,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26578,7 +26578,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26647,7 +26647,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26789,7 +26789,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26862,7 +26862,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26931,7 +26931,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -26998,7 +26998,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27067,7 +27067,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27136,7 +27136,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27209,7 +27209,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27278,7 +27278,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27351,7 +27351,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27422,29 +27422,31 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6135422</t>
+          <t>6421153</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g</t>
+          <t>Naturaplan Bio Panettone Artigianale</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-zwetschgen-rollen-3x60g/p/6135422</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/naturaplan-bio-panettone-artigianale/p/6421153</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>3</v>
+      </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -27453,12 +27455,12 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>3.99/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27468,7 +27470,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27478,56 +27480,54 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g 3.10 Schweizer Franken</t>
+          <t>Naturaplan Bio Panettone Artigianale 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6135422</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
-        </is>
-      </c>
-      <c r="D383" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-zwetschgen-rollen-3x60g/p/6135422</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
       <c r="E383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27537,7 +27537,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27547,60 +27547,56 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 20% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E384" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27610,7 +27606,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27625,55 +27621,55 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27683,7 +27679,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27693,56 +27689,60 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr"/>
+          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6421153</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Panettone Artigianale</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/naturaplan-bio-panettone-artigianale/p/6421153</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D386" t="n">
         <v>3</v>
       </c>
       <c r="E386" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>3.99/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27752,7 +27752,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27762,18 +27762,18 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Panettone Artigianale 19.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27846,7 +27846,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27919,7 +27919,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -27988,7 +27988,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28057,7 +28057,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28128,7 +28128,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28199,7 +28199,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28268,7 +28268,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28341,7 +28341,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28410,7 +28410,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28483,7 +28483,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28554,7 +28554,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28627,7 +28627,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28696,7 +28696,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28765,7 +28765,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28834,7 +28834,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28901,7 +28901,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -28970,7 +28970,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -29039,7 +29039,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -29108,7 +29108,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -29175,7 +29175,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -29248,7 +29248,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -29317,7 +29317,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -29386,7 +29386,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -29459,7 +29459,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
@@ -29532,7 +29532,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-02 12:38:43</t>
+          <t>2022-12-02 14:38:38</t>
         </is>
       </c>
     </row>
